--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value649.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value649.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.317862004770352</v>
+        <v>1.193778157234192</v>
       </c>
       <c r="B1">
-        <v>2.237024896381689</v>
+        <v>2.32668137550354</v>
       </c>
       <c r="C1">
-        <v>2.739714777933034</v>
+        <v>3.498147487640381</v>
       </c>
       <c r="D1">
-        <v>3.157967604337115</v>
+        <v>3.344908952713013</v>
       </c>
       <c r="E1">
-        <v>2.299813491736753</v>
+        <v>1.141029477119446</v>
       </c>
     </row>
   </sheetData>
